--- a/examples/input/interactions/translated_SkeMel133_biorecipe.xlsx
+++ b/examples/input/interactions/translated_SkeMel133_biorecipe.xlsx
@@ -1731,7 +1731,11 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
